--- a/data/income_statement/3digits/total/256_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/256_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>256-Treatment and coating of metals; machining</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>256-Treatment and coating of metals; machining</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2285963.3816</v>
@@ -956,37 +862,42 @@
         <v>2972058.90972</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4348258.342389999</v>
+        <v>4348258.34239</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4817670.1231</v>
+        <v>4822914.909469999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>6038212.69296</v>
+        <v>6047970.03297</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7696440.870589999</v>
+        <v>7722115.792720001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8564329.35069</v>
+        <v>8702069.74285</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10246026.7401</v>
+        <v>10249821.47165</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>15139086.48999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>21170541.24164</v>
+        <v>21216255.86971</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>24782117.35012</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25040464.9481</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>34576456.34</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2070623.23482</v>
@@ -998,34 +909,39 @@
         <v>3929463.67394</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>4369979.609180001</v>
+        <v>4374820.413930001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5520784.13833</v>
+        <v>5530501.86566</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7054580.42353</v>
+        <v>7078405.82134</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7853035.442</v>
+        <v>7976669.12245</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9288784.29847</v>
+        <v>9292577.09835</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>13243526.61459</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>17552365.04858</v>
+        <v>17595433.65322</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>20235363.74869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>20476297.7037</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>28519103.853</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>187892.81132</v>
@@ -1034,37 +950,42 @@
         <v>235895.49325</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>374511.77218</v>
+        <v>374511.7721800001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>393445.41848</v>
+        <v>393849.4001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>455621.69113</v>
+        <v>455648.59821</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>570642.87549</v>
+        <v>571684.34175</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>626671.06768</v>
+        <v>639638.40408</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>840184.1974200001</v>
+        <v>840185.82401</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1731442.79039</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3417156.97361</v>
+        <v>3419033.09864</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4277268.6668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4291106.59487</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5710710.36</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>27447.33546</v>
@@ -1079,31 +1000,36 @@
         <v>54245.09544</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>61806.86350000001</v>
+        <v>61819.56909999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>71217.57157</v>
+        <v>72025.62963</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>84622.84100999999</v>
+        <v>85762.21631999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>117058.24421</v>
+        <v>117058.54929</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>164117.08501</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>201019.21945</v>
+        <v>201789.11785</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>269484.93463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>273060.6495300001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>346642.127</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>24932.41897999999</v>
@@ -1115,34 +1041,39 @@
         <v>37310.11723</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>43201.92533999999</v>
+        <v>43201.92534</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>50240.5211</v>
+        <v>50241.24333</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>70366.73445999999</v>
+        <v>70380.46926000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>118184.22515</v>
+        <v>122488.60778</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>104999.67044</v>
+        <v>105009.75795</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>147362.71805</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>193486.5247</v>
+        <v>194289.03253</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>229966.66147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>231437.68527</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>443745.15</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>17176.2685</v>
@@ -1160,34 +1091,39 @@
         <v>41523.49077</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>53908.61958999999</v>
+        <v>53920.92414</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>99272.72525</v>
+        <v>101549.95562</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>77697.42094999999</v>
+        <v>77707.50846000001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>114454.31656</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>148102.87213</v>
+        <v>148888.38841</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>187982.50313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>189301.24404</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>378523.574</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5996.735390000001</v>
+        <v>5996.73539</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>3529.624080000001</v>
+        <v>3529.62408</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>3208.63953</v>
@@ -1196,13 +1132,13 @@
         <v>4785.752320000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4998.939820000001</v>
+        <v>4999.66205</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>9342.74295</v>
+        <v>9344.173199999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>12431.8771</v>
+        <v>14234.91664</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>20014.35359</v>
@@ -1211,16 +1147,21 @@
         <v>20557.56104</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>21784.93640999999</v>
+        <v>21788.73269</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>22716.11015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>22836.25855</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>35452.332</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1759.41509</v>
@@ -1241,7 +1182,7 @@
         <v>7115.37192</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>6479.6228</v>
+        <v>6703.73552</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>7287.8959</v>
@@ -1250,16 +1191,21 @@
         <v>12350.84045</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>23598.71616</v>
+        <v>23611.91143</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>19268.04819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19300.18268</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>29769.244</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2261030.96262</v>
@@ -1271,34 +1217,39 @@
         <v>4310948.22516</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4774468.19776</v>
+        <v>4779712.984129999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>5987972.17186</v>
+        <v>5997728.78964</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7626074.13613</v>
+        <v>7651735.323460001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8446145.125540001</v>
+        <v>8579581.13507</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10141027.06966</v>
+        <v>10144811.7137</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>14991723.77194</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>20977054.71694</v>
+        <v>21021966.83718</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>24552150.68865</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>24809027.26283</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>34132711.19</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1900492.4177</v>
@@ -1310,34 +1261,39 @@
         <v>3640844.60887</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>4025102.48367</v>
+        <v>4029203.0225</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5029935.40563</v>
+        <v>5038453.409010001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6420754.929119999</v>
+        <v>6443325.33558</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7054306.77847</v>
+        <v>7163202.825530001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8406300.450930001</v>
+        <v>8409726.484339999</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>12436581.29495</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>17531168.02078</v>
+        <v>17570226.25123</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>20780354.1012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21006556.3523</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>28494865.56</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1069246.96071</v>
@@ -1349,34 +1305,39 @@
         <v>2232740.21512</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2531625.79872</v>
+        <v>2532046.12289</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3053046.95478</v>
+        <v>3056811.026310001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3646459.69863</v>
+        <v>3662739.45542</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4425164.984940001</v>
+        <v>4497065.6239</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5317286.18276</v>
+        <v>5320815.20408</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>8492439.75984</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>12601885.51464</v>
+        <v>12627587.8163</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>14704750.3264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14807196.03366</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>19504079.453</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>485720.21608</v>
@@ -1388,34 +1349,39 @@
         <v>840821.5763</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>813919.17659</v>
+        <v>814383.4341699999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1156756.02519</v>
+        <v>1157777.95645</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1644572.6662</v>
+        <v>1646058.41258</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1398453.23812</v>
+        <v>1413542.50223</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1581826.15918</v>
+        <v>1581688.90845</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1946819.33181</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2700966.85541</v>
+        <v>2706527.29573</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3444238.13496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3523805.88005</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5704466.248</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>341457.25968</v>
@@ -1427,43 +1393,48 @@
         <v>561505.2910699999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>669216.4585399999</v>
+        <v>672432.41562</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>811339.9570500001</v>
+        <v>815071.9576400002</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1117097.60571</v>
+        <v>1121902.509</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1211878.83508</v>
+        <v>1233748.96731</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1467589.35501</v>
+        <v>1467592.70639</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1934889.54683</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2162102.19699</v>
+        <v>2169643.43546</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2513403.07704</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2556907.315650001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3142151.869</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>4067.981229999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3821.03885</v>
+        <v>3821.038849999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5777.52638</v>
+        <v>5777.526380000001</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>10341.04982</v>
@@ -1475,25 +1446,30 @@
         <v>12624.95858</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>18809.72033</v>
+        <v>18845.73209</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>39598.75397999999</v>
+        <v>39629.66542</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>62432.65647</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>66213.45374</v>
+        <v>66467.70374</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>117962.5628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>118647.12294</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>144167.99</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>360538.54492</v>
@@ -1505,73 +1481,83 @@
         <v>670103.6162899999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>749365.71409</v>
+        <v>750509.96163</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>958036.7662300001</v>
+        <v>959275.38063</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1205319.20701</v>
+        <v>1208409.98788</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1391838.34707</v>
+        <v>1416378.30954</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1734726.61873</v>
+        <v>1735085.22936</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2555142.47699</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3445886.69616</v>
+        <v>3451740.58595</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3771796.58745</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3802470.91053</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5637845.63</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>237949.32725</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>283346.6226600001</v>
+        <v>283346.62266</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>362312.0241400001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>451171.23248</v>
+        <v>451984.57237</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>565545.43373</v>
+        <v>566984.58247</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>689198.1630000002</v>
+        <v>692133.9072100001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>770741.9129999999</v>
+        <v>780807.97789</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>924887.88225</v>
+        <v>925285.8448300001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1199503.56674</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1633720.44436</v>
+        <v>1643280.89746</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1941977.03084</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1975711.74567</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2424692.592</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1784.26118</v>
@@ -1589,10 +1575,10 @@
         <v>2143.41883</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>5796.54008</v>
+        <v>5814.944779999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5470.77474</v>
+        <v>5549.02261</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>6610.47877</v>
@@ -1601,16 +1587,21 @@
         <v>13773.33055</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>30318.51426</v>
+        <v>30394.25109</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>20609.60853</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22528.43604</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>39429.624</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>41955.40928</v>
@@ -1619,37 +1610,42 @@
         <v>53100.30998</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>70568.65851000001</v>
+        <v>70568.65850999999</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>91659.97431000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>113456.82234</v>
+        <v>113516.21348</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>140603.60834</v>
+        <v>140776.68484</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>148267.28416</v>
+        <v>150905.94592</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>177187.82801</v>
+        <v>177234.87964</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>270161.04074</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>416369.83515</v>
+        <v>416839.7268</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>512114.28776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>516112.04984</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>653098.367</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>194209.65679</v>
@@ -1661,34 +1657,39 @@
         <v>290159.25171</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>355084.06593</v>
+        <v>355897.40582</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>449945.1925600001</v>
+        <v>451324.9501599999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>542798.01458</v>
+        <v>545542.27759</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>617003.8541</v>
+        <v>624353.00936</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>741089.5754699999</v>
+        <v>741440.48642</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>915569.1954499999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1187032.09495</v>
+        <v>1196046.91957</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1409253.13455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1437071.25979</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1732164.601</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>122589.21767</v>
@@ -1700,34 +1701,39 @@
         <v>307791.59215</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>298194.48161</v>
+        <v>298525.38926</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>392491.3325</v>
+        <v>392290.79816</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>516121.04401</v>
+        <v>516276.0806699999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>621096.43407</v>
+        <v>635570.3316499999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>809838.7364799998</v>
+        <v>809799.3845299999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1355638.91025</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1812166.2518</v>
+        <v>1808459.68849</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1829819.55661</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1826759.16486</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3213153.038</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>45582.96202</v>
@@ -1739,34 +1745,39 @@
         <v>71275.28687000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>71926.19322999999</v>
+        <v>71926.19323</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>117696.39382</v>
+        <v>117710.80534</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>148012.98375</v>
+        <v>148030.50607</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>315010.0796699999</v>
+        <v>316245.21675</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>401712.87635</v>
+        <v>401733.98295</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>652664.67003</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2102236.63442</v>
+        <v>2104661.37083</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>936225.5864299999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>939572.7906899999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4306041.398</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>162.1381</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>437.50215</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>206.71</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>6104.5198</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1318.552</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>3294.20194</v>
@@ -1859,37 +1880,42 @@
         <v>5892.8361</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>7381.20315</v>
+        <v>7392.37008</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>10273.46941</v>
+        <v>10273.49029</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>12073.64909</v>
+        <v>12085.98335</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>15113.14592</v>
+        <v>15126.93738</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>26044.61094</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>51962.99918999999</v>
+        <v>52452.47648</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>69071.70118999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>69757.88452000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>61688.657</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>276.36489</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>660.6394200000001</v>
+        <v>660.63942</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>449.4028200000001</v>
@@ -1907,7 +1933,7 @@
         <v>77.77083</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>19.71483</v>
+        <v>19.71511</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>188.37157</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>1374.358</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1958.941</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1072.34665</v>
@@ -1952,16 +1983,21 @@
         <v>2615.24328</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>7168.83941</v>
+        <v>7254.60148</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>6109.85357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6117.939899999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>4694.366</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>385.59624</v>
@@ -1976,10 +2012,10 @@
         <v>602.70988</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>454.0329599999999</v>
+        <v>454.03296</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>814.02437</v>
+        <v>821.5956</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>476.40024</v>
@@ -1994,16 +2030,21 @@
         <v>1515.92172</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>7703.359649999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>7704.49466</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>13370.143</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>35300.7207</v>
+        <v>35300.72070000001</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>45101.56208</v>
@@ -2015,31 +2056,36 @@
         <v>52255.42326</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>91588.77839000001</v>
+        <v>91592.02298000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>118309.66361</v>
+        <v>118314.64557</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>273063.79593</v>
+        <v>273908.75304</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>344909.18974</v>
+        <v>344917.46261</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>549574.29979</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1962967.90631</v>
+        <v>1963121.51283</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>771672.94294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>772283.44073</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4127364.442</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>141.08704</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>3180.563520000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>6822.133</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>151.66067</v>
@@ -2113,17 +2164,22 @@
       <c r="M34" s="48" t="n">
         <v>5.585</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>17.155</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>4798.84579</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>6470.247020000001</v>
+        <v>6470.24702</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>6400.38768</v>
@@ -2135,28 +2191,33 @@
         <v>14761.43368</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>13527.64317</v>
+        <v>13532.59142</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>26524.25946</v>
+        <v>26902.10517</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>37445.61861999999</v>
+        <v>37444.66061</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>52853.29703</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>67874.84832999999</v>
+        <v>69570.73886</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>70565.20061</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>72606.50241</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>88600.299</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>50032.85844</v>
@@ -2168,46 +2229,51 @@
         <v>66700.70484999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>57997.79800999999</v>
+        <v>57997.79801</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>127630.0577</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>148483.94226</v>
+        <v>148521.44067</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>319901.73979</v>
+        <v>321358.87128</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>400267.73664</v>
+        <v>400301.7233099999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>672748.5353099999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2211382.97172</v>
+        <v>2211693.86843</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>789355.736</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>809676.8967200001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4300284.664</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>523.41088</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>851.8614399999999</v>
+        <v>851.86144</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>490.53256</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>982.4758</v>
+        <v>982.4757999999999</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>1184.08035</v>
@@ -2216,10 +2282,10 @@
         <v>1036.39022</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>848.6331799999999</v>
+        <v>849.69753</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>861.47856</v>
+        <v>861.47492</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1345.07424</v>
@@ -2228,13 +2294,18 @@
         <v>1305.89367</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1514.28185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1514.67144</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2339.861</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>12088.62404</v>
@@ -2252,10 +2323,10 @@
         <v>11170.54262</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>8333.013140000001</v>
+        <v>8333.013139999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>10446.54242</v>
+        <v>10582.41856</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>17756.94915</v>
@@ -2267,13 +2338,18 @@
         <v>29140.60253</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>23481.91197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>35572.07282</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>12558.652</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>39.55562</v>
@@ -2297,10 +2373,10 @@
         <v>312.57775</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>4231.784610000001</v>
+        <v>4231.78461</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>714.94021</v>
+        <v>714.9402100000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>752.1170800000001</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>667.95314</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>12550.418</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>31764.28265</v>
@@ -2321,7 +2402,7 @@
         <v>30677.23789</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>53420.36137</v>
+        <v>53420.36137000001</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>41942.28095</v>
@@ -2330,28 +2411,33 @@
         <v>108567.28616</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>130820.31796</v>
+        <v>130857.68587</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>294713.1323</v>
+        <v>296014.45884</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>357958.22875</v>
+        <v>357959.50532</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>631153.25988</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2138944.04248</v>
+        <v>2139184.59415</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>732673.48998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>740100.3272599999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>4184323.618</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>30.57321</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>3581.55786</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>8645.401</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>44.90674</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>6.89154</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>1.889</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5541.505299999999</v>
+        <v>5541.5053</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>4289.4708</v>
+        <v>4289.470800000001</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>9197.380359999999</v>
@@ -2444,31 +2540,36 @@
         <v>5651.88079</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>6281.449820000001</v>
+        <v>6281.44982</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7854.346800000001</v>
+        <v>7854.4773</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>13153.32038</v>
+        <v>13172.18484</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>18853.11514</v>
+        <v>18885.82888</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>20654.84336</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>32148.00444</v>
+        <v>32218.34948</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>27429.64966</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>28233.42266</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>79864.825</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>70296.56601000001</v>
@@ -2480,34 +2581,39 @@
         <v>106463.84973</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>89378.71029</v>
+        <v>89509.20538</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>121348.70198</v>
+        <v>121586.51865</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>154417.19019</v>
+        <v>155249.9906</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>219921.39833</v>
+        <v>221610.90502</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>218153.25652</v>
+        <v>218216.55831</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>305569.03029</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>494558.5526</v>
+        <v>495033.8066599999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>642139.7044800001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>643819.7311500001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>834276.7439999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>63633.69491999999</v>
@@ -2516,37 +2622,42 @@
         <v>53200.08767</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>80033.35922999999</v>
+        <v>80033.35923</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>81541.07065000001</v>
+        <v>81671.56574000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>110859.45756</v>
+        <v>111097.27423</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>139473.17672</v>
+        <v>140305.97713</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>185764.17493</v>
+        <v>187453.68162</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>190328.34121</v>
+        <v>190349.44125</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>259649.6603</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>433082.88347</v>
+        <v>433557.7090199999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>557559.3071800001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>559191.6298199999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>660082.444</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>6662.87109</v>
@@ -2570,25 +2681,30 @@
         <v>34157.2234</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>27824.91531</v>
+        <v>27867.11706</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>45919.36998999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>61475.66913000001</v>
+        <v>61476.09764</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>84580.3973</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>84628.10133</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>174194.3</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>47842.75524</v>
+        <v>47842.75523999999</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>156055.68799</v>
@@ -2597,37 +2713,42 @@
         <v>205902.32444</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>222744.16654</v>
+        <v>222944.5791</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>261208.96664</v>
+        <v>260785.02715</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>361232.89531</v>
+        <v>360535.1554700001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>396283.37562</v>
+        <v>408845.7721</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>593130.61967</v>
+        <v>593015.08586</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1029986.01468</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1208461.3619</v>
+        <v>1206393.38423</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1334549.70256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1312835.32768</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2384633.028</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>9480.590350000002</v>
+        <v>9480.59035</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>13591.24243</v>
@@ -2639,31 +2760,36 @@
         <v>20357.13749</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>30277.02164</v>
+        <v>30358.6887</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>73771.74213</v>
+        <v>73782.14217000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>59013.75126</v>
+        <v>59687.15454</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>81261.42558000001</v>
+        <v>81270.93437</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>107282.85446</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>137037.73307</v>
+        <v>137289.34121</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>150683.88205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>151038.20047</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>192771.61</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>386.27579</v>
@@ -2681,13 +2807,13 @@
         <v>402.5290900000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>459.97176</v>
+        <v>461.89176</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>1283.97414</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>819.3416400000001</v>
+        <v>819.3537</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>12884.93336</v>
@@ -2696,16 +2822,21 @@
         <v>1336.73037</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>926.4769800000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>936.1025100000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>2733.895</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>9094.314559999999</v>
+        <v>9094.314560000001</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>13296.25119</v>
@@ -2717,31 +2848,36 @@
         <v>19885.0586</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>29874.49255</v>
+        <v>29956.15961</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>73311.77037</v>
+        <v>73320.25040999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>57729.77711999999</v>
+        <v>58403.1804</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>80442.08394</v>
+        <v>80451.58067</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>94397.92110000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>135701.0027</v>
+        <v>135952.61084</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>149757.40507</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>150102.09796</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>190037.715</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>13242.74231</v>
@@ -2753,34 +2889,39 @@
         <v>119444.00435</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>21066.27883</v>
+        <v>21093.02648</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>39310.14212</v>
+        <v>39331.15452</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>117765.92044</v>
+        <v>118016.60934</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>49013.63751000001</v>
+        <v>49523.93867</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>185015.9065</v>
+        <v>184957.16482</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>69640.40488000002</v>
+        <v>69640.40488</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>216934.65255</v>
+        <v>218348.31615</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>100713.62074</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>102480.70523</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>136757.594</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1115.65132</v>
@@ -2804,25 +2945,30 @@
         <v>7974.12549</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>18600.20388</v>
+        <v>18602.23026</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>4374.95454</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3059.61533</v>
+        <v>3075.05296</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5341.65618</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>5429.937859999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>4048.716</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>892.72165</v>
+        <v>892.7216500000001</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>1044.84253</v>
@@ -2837,28 +2983,33 @@
         <v>1417.7595</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>4553.50637</v>
+        <v>4553.506369999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5721.7837</v>
+        <v>5723.40913</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>3216.14913</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3263.4427</v>
+        <v>3263.442700000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>15462.27216</v>
+        <v>15462.56867</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4371.01628</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4390.88544</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>15624.285</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>11234.36934</v>
@@ -2870,34 +3021,39 @@
         <v>116986.88285</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>18116.80488</v>
+        <v>18143.55253</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>33853.87361</v>
+        <v>33874.88600999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>110007.77006</v>
+        <v>110258.45896</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>35317.72832</v>
+        <v>35826.40405</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>163199.55349</v>
+        <v>163138.78543</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>62002.00764</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>198412.76506</v>
+        <v>199810.69452</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>91000.94828</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>92659.88192999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>117084.593</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>44080.60328</v>
@@ -2909,34 +3065,39 @@
         <v>105907.70042</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>222035.0252</v>
+        <v>222208.69011</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>252175.84616</v>
+        <v>251812.56133</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>317238.717</v>
+        <v>316300.6883</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>406283.48937</v>
+        <v>419008.98797</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>489376.13875</v>
+        <v>489328.85541</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1067628.46426</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1128564.44242</v>
+        <v>1125334.40929</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1384519.96387</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1361392.82292</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2440647.044</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>17015.55566</v>
@@ -2948,34 +3109,39 @@
         <v>38472.09835</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>45837.72148000001</v>
+        <v>45851.1057</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>58458.34215</v>
+        <v>58462.36513</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>75588.65832999999</v>
+        <v>75715.59998999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>90603.53386</v>
+        <v>92876.24468999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>114087.70531</v>
+        <v>114123.81547</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>177267.17655</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>246861.85579</v>
+        <v>247796.26283</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>251709.0313</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>253550.67322</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>421149.605</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>27065.04762</v>
@@ -2987,31 +3153,34 @@
         <v>67435.60206999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>176197.30372</v>
+        <v>176357.58441</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>193717.50401</v>
+        <v>193350.1962</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>241650.05867</v>
+        <v>240585.08831</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>315679.95551</v>
+        <v>326132.74328</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>375288.43344</v>
+        <v>375205.03994</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>890361.2877100001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>881702.58663</v>
+        <v>877538.14646</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1132810.93257</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1107842.1497</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2019497.439</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2425</v>
@@ -3041,31 +3213,34 @@
         <v>2666</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3311</v>
+        <v>3317</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3899</v>
+        <v>3921</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4261</v>
+        <v>4270</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4578</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4633</v>
+        <v>4977</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4881</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5360</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>